--- a/ig/titres-et-acronyme-essai/all-profiles.xlsx
+++ b/ig/titres-et-acronyme-essai/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:33:10+00:00</t>
+    <t>2023-07-26T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,96 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
   </si>
   <si>
+    <t>eclaire-label</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-label</t>
+  </si>
+  <si>
+    <t>ECLAIRELabel</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType</t>
+  </si>
+  <si>
+    <t>labelType</t>
+  </si>
+  <si>
+    <t>primary | official | plain-language | subtitle | short-title | acronym | earlier-title | language | auto-translated | human-use | machine-use</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelType.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/title-type</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue</t>
+  </si>
+  <si>
+    <t>labelValue</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:labelValue.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
     <t>eclaire-recruitment-period</t>
   </si>
   <si>
@@ -284,10 +374,6 @@
     <t>element:ResearchStudy.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -470,17 +556,7 @@
     <t>ResearchStudy.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -536,6 +612,16 @@
     <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-label}
+</t>
+  </si>
+  <si>
+    <t>autres titres et acronyme / Additional names for the study</t>
+  </si>
+  <si>
     <t>ResearchStudy.modifierExtension</t>
   </si>
   <si>
@@ -596,9 +682,6 @@
     <t>ResearchStudy.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>ResearchStudy.identifier:idPrimary.use</t>
   </si>
   <si>
@@ -617,7 +700,7 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>usual</t>
+    <t>official</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -645,9 +728,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -788,7 +868,7 @@
     <t>ResearchStudy.title</t>
   </si>
   <si>
-    <t>Nom de l'étude / Public Title</t>
+    <t>Nom scientifique de l'étude / Scientific Title</t>
   </si>
   <si>
     <t>A short, descriptive user-friendly label for the study.</t>
@@ -1381,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1884,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -1892,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -1908,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -1960,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
@@ -2044,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
@@ -2052,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
@@ -2068,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90">
@@ -2120,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97">
@@ -2188,7 +2268,7 @@
         <v>36</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
@@ -2204,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
@@ -2212,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
@@ -2228,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
@@ -2280,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
@@ -2348,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
@@ -2364,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
@@ -2372,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
@@ -2388,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
@@ -2440,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139">
@@ -2468,7 +2548,7 @@
         <v>26</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
@@ -2476,7 +2556,7 @@
         <v>28</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
@@ -2484,7 +2564,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -2500,6 +2580,166 @@
         <v>34</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2510,7 +2750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3807,14 +4047,14 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
@@ -3829,12 +4069,14 @@
         <v>50</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>38</v>
@@ -3903,18 +4145,20 @@
         <v>71</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="E14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>44</v>
@@ -3929,24 +4173,22 @@
         <v>38</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>38</v>
@@ -3988,19 +4230,19 @@
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -4008,10 +4250,10 @@
         <v>71</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4034,13 +4276,13 @@
         <v>38</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4091,7 +4333,7 @@
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -4100,21 +4342,21 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4125,7 +4367,7 @@
         <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
@@ -4137,13 +4379,13 @@
         <v>38</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4182,19 +4424,19 @@
         <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -4206,18 +4448,18 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4225,7 +4467,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>44</v>
@@ -4240,22 +4482,24 @@
         <v>38</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>38</v>
@@ -4297,10 +4541,10 @@
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>44</v>
@@ -4314,13 +4558,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4331,7 +4575,7 @@
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
@@ -4343,13 +4587,13 @@
         <v>38</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4376,62 +4620,62 @@
         <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Z18" s="2"/>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="E19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
@@ -4446,24 +4690,22 @@
         <v>38</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>38</v>
@@ -4505,30 +4747,30 @@
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4551,13 +4793,13 @@
         <v>38</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4608,7 +4850,7 @@
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -4617,21 +4859,21 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4642,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
@@ -4654,13 +4896,13 @@
         <v>38</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4699,19 +4941,19 @@
         <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -4723,18 +4965,18 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4742,7 +4984,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>
@@ -4757,22 +4999,24 @@
         <v>38</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>38</v>
@@ -4814,10 +5058,10 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>44</v>
@@ -4831,13 +5075,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4848,7 +5092,7 @@
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
@@ -4860,13 +5104,13 @@
         <v>38</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4905,36 +5149,36 @@
         <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>57</v>
@@ -4980,7 +5224,7 @@
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>38</v>
@@ -5039,7 +5283,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>62</v>
@@ -5056,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>38</v>
@@ -5068,7 +5312,7 @@
         <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>64</v>
@@ -5101,11 +5345,13 @@
         <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Z25" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA25" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>38</v>
@@ -5140,7 +5386,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>29</v>
@@ -5175,7 +5421,7 @@
         <v>29</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5243,7 +5489,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>43</v>
@@ -5346,7 +5592,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>49</v>
@@ -5449,7 +5695,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>57</v>
@@ -5495,7 +5741,7 @@
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>38</v>
@@ -5554,7 +5800,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>62</v>
@@ -5583,7 +5829,7 @@
         <v>38</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>64</v>
@@ -5657,17 +5903,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
@@ -5689,14 +5935,12 @@
         <v>41</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -5745,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -5754,7 +5998,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5762,13 +6006,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5788,20 +6032,18 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>38</v>
@@ -5850,7 +6092,7 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -5867,13 +6109,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5884,7 +6126,7 @@
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
@@ -5893,16 +6135,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5941,42 +6183,42 @@
         <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5984,7 +6226,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>44</v>
@@ -5993,22 +6235,22 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -6016,7 +6258,7 @@
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>38</v>
@@ -6058,30 +6300,30 @@
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6104,17 +6346,15 @@
         <v>38</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>38</v>
@@ -6139,13 +6379,13 @@
         <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>38</v>
@@ -6163,7 +6403,7 @@
         <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -6180,24 +6420,24 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
@@ -6209,17 +6449,15 @@
         <v>38</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>38</v>
@@ -6268,41 +6506,41 @@
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
@@ -6314,17 +6552,15 @@
         <v>38</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>38</v>
@@ -6373,13 +6609,13 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>38</v>
@@ -6390,24 +6626,24 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
@@ -6422,14 +6658,12 @@
         <v>50</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>38</v>
@@ -6478,7 +6712,7 @@
         <v>54</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -6495,23 +6729,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6526,22 +6758,24 @@
         <v>38</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>38</v>
@@ -6583,34 +6817,32 @@
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6631,13 +6863,13 @@
         <v>38</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6664,13 +6896,11 @@
         <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Z40" s="2"/>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>38</v>
@@ -6688,34 +6918,32 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6724,7 +6952,7 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
@@ -6736,13 +6964,13 @@
         <v>38</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6793,7 +7021,7 @@
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -6805,22 +7033,20 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6841,13 +7067,13 @@
         <v>38</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6898,34 +7124,32 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>38</v>
       </c>
@@ -6934,7 +7158,7 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -6946,13 +7170,13 @@
         <v>38</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6991,19 +7215,19 @@
         <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -7020,55 +7244,53 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>38</v>
@@ -7098,42 +7320,42 @@
         <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7144,7 +7366,7 @@
         <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
@@ -7153,21 +7375,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7203,25 +7423,25 @@
         <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>42</v>
@@ -7232,49 +7452,47 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7322,7 +7540,7 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -7331,21 +7549,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7365,18 +7583,20 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>38</v>
@@ -7425,7 +7645,7 @@
         <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -7442,24 +7662,24 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
@@ -7468,20 +7688,18 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>38</v>
@@ -7518,42 +7736,42 @@
         <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7561,7 +7779,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7570,26 +7788,24 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7598,7 +7814,7 @@
         <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>38</v>
@@ -7613,13 +7829,13 @@
         <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>38</v>
@@ -7637,7 +7853,7 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -7654,13 +7870,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7680,23 +7896,21 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7720,13 +7934,13 @@
         <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>38</v>
@@ -7744,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7761,17 +7975,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7787,23 +8001,21 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7815,7 +8027,7 @@
         <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
         <v>38</v>
@@ -7851,7 +8063,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7868,24 +8080,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>38</v>
@@ -7894,19 +8106,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -7920,7 +8132,7 @@
         <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
         <v>38</v>
@@ -7956,41 +8168,41 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
@@ -7999,19 +8211,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
@@ -8049,44 +8261,46 @@
         <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8104,20 +8318,18 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>38</v>
@@ -8166,33 +8378,33 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>233</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>38</v>
@@ -8202,30 +8414,28 @@
         <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8273,7 +8483,7 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -8285,20 +8495,22 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8319,13 +8531,13 @@
         <v>38</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8376,41 +8588,43 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="E57" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
@@ -8422,17 +8636,15 @@
         <v>38</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>38</v>
@@ -8469,19 +8681,19 @@
         <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -8498,49 +8710,47 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8549,7 +8759,7 @@
         <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>38</v>
@@ -8564,13 +8774,13 @@
         <v>38</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
         <v>38</v>
@@ -8588,32 +8798,34 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8622,7 +8834,7 @@
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8631,23 +8843,19 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8671,13 +8879,13 @@
         <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>38</v>
@@ -8695,65 +8903,65 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>38</v>
@@ -8766,7 +8974,7 @@
         <v>38</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="V60" t="s" s="2">
         <v>38</v>
@@ -8790,42 +8998,42 @@
         <v>38</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8836,7 +9044,7 @@
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -8845,21 +9053,21 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="P61" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>38</v>
       </c>
@@ -8871,7 +9079,7 @@
         <v>38</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="V61" t="s" s="2">
         <v>38</v>
@@ -8895,25 +9103,25 @@
         <v>38</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
@@ -8924,15 +9132,17 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="E62" t="s" s="2">
         <v>38</v>
       </c>
@@ -8944,27 +9154,27 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P62" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q62" t="s" s="2">
         <v>38</v>
       </c>
@@ -9012,30 +9222,30 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9055,20 +9265,18 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>38</v>
@@ -9117,7 +9325,7 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -9126,32 +9334,32 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -9160,19 +9368,19 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9210,42 +9418,42 @@
         <v>38</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9253,33 +9461,35 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="P65" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>38</v>
       </c>
@@ -9288,7 +9498,7 @@
         <v>38</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>38</v>
@@ -9303,13 +9513,13 @@
         <v>38</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AB65" t="s" s="2">
         <v>38</v>
@@ -9327,41 +9537,41 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9370,22 +9580,22 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
@@ -9410,13 +9620,13 @@
         <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
@@ -9434,30 +9644,30 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9465,7 +9675,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9474,24 +9684,26 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="P67" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q67" t="s" s="2">
         <v>38</v>
       </c>
@@ -9503,7 +9715,7 @@
         <v>38</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="V67" t="s" s="2">
         <v>38</v>
@@ -9515,13 +9727,13 @@
         <v>38</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
         <v>38</v>
@@ -9539,10 +9751,10 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>44</v>
@@ -9556,13 +9768,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9582,19 +9794,19 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9608,7 +9820,7 @@
         <v>38</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="V68" t="s" s="2">
         <v>38</v>
@@ -9620,13 +9832,13 @@
         <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>38</v>
@@ -9644,7 +9856,7 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -9661,13 +9873,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9687,19 +9899,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9725,13 +9937,13 @@
         <v>38</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>38</v>
@@ -9749,7 +9961,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9761,18 +9973,18 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>66</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9783,7 +9995,7 @@
         <v>39</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -9792,19 +10004,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9830,10 +10042,10 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9854,32 +10066,34 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="E71" t="s" s="2">
         <v>38</v>
       </c>
@@ -9891,27 +10105,27 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="P71" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q71" t="s" s="2">
         <v>38</v>
       </c>
@@ -9935,10 +10149,10 @@
         <v>38</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>38</v>
@@ -9959,7 +10173,7 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -9976,13 +10190,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9993,7 +10207,7 @@
         <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -10002,20 +10216,18 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
         <v>38</v>
@@ -10040,13 +10252,13 @@
         <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>38</v>
@@ -10064,34 +10276,34 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -10107,18 +10319,20 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>38</v>
@@ -10155,19 +10369,19 @@
         <v>38</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -10179,18 +10393,18 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10198,7 +10412,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10207,22 +10421,26 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q74" t="s" s="2">
         <v>38</v>
       </c>
@@ -10231,7 +10449,7 @@
         <v>38</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>38</v>
@@ -10246,13 +10464,13 @@
         <v>38</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>38</v>
@@ -10270,7 +10488,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -10279,32 +10497,32 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
@@ -10313,21 +10531,23 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P75" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>38</v>
       </c>
@@ -10351,58 +10571,56 @@
         <v>38</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10420,19 +10638,23 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10444,7 +10666,7 @@
         <v>38</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="V76" t="s" s="2">
         <v>38</v>
@@ -10480,30 +10702,30 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10523,19 +10745,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10549,7 +10771,7 @@
         <v>38</v>
       </c>
       <c r="U77" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="V77" t="s" s="2">
         <v>38</v>
@@ -10585,7 +10807,7 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -10602,13 +10824,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10619,7 +10841,7 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10628,18 +10850,20 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -10688,30 +10912,30 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>310</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10722,7 +10946,7 @@
         <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
@@ -10731,19 +10955,19 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>312</v>
+        <v>63</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10793,30 +11017,30 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10827,7 +11051,7 @@
         <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -10836,19 +11060,19 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10874,10 +11098,10 @@
         <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>319</v>
+        <v>38</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>38</v>
@@ -10898,13 +11122,13 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>42</v>
@@ -10915,13 +11139,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10941,19 +11165,19 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10979,13 +11203,13 @@
         <v>38</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>38</v>
@@ -11003,7 +11227,7 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -11015,29 +11239,29 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11046,21 +11270,23 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="P82" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="Q82" t="s" s="2">
         <v>38</v>
       </c>
@@ -11108,62 +11334,62 @@
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -11189,13 +11415,13 @@
         <v>38</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>38</v>
@@ -11213,34 +11439,34 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
@@ -11256,19 +11482,19 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -11294,13 +11520,13 @@
         <v>38</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>38</v>
@@ -11318,7 +11544,7 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
@@ -11330,18 +11556,18 @@
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11361,19 +11587,19 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11399,13 +11625,13 @@
         <v>38</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>38</v>
@@ -11423,7 +11649,7 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -11435,18 +11661,18 @@
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11457,7 +11683,7 @@
         <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
@@ -11466,19 +11692,19 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11504,10 +11730,10 @@
         <v>38</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>38</v>
@@ -11528,30 +11754,30 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11571,19 +11797,19 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>348</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11609,10 +11835,10 @@
         <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>38</v>
@@ -11633,7 +11859,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -11645,18 +11871,18 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11667,7 +11893,7 @@
         <v>39</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>38</v>
@@ -11676,19 +11902,19 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11714,13 +11940,13 @@
         <v>38</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>38</v>
@@ -11738,13 +11964,13 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>42</v>
@@ -11755,13 +11981,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11781,20 +12007,18 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -11843,7 +12067,7 @@
         <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11860,13 +12084,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11877,7 +12101,7 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
@@ -11889,13 +12113,13 @@
         <v>38</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>363</v>
+        <v>46</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>364</v>
+        <v>47</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11946,41 +12170,41 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>361</v>
+        <v>48</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>38</v>
@@ -11992,15 +12216,17 @@
         <v>38</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>38</v>
@@ -12037,53 +12263,55 @@
         <v>38</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="E92" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -12095,17 +12323,15 @@
         <v>38</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>38</v>
@@ -12142,16 +12368,16 @@
         <v>38</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>55</v>
@@ -12171,49 +12397,47 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>38</v>
       </c>
@@ -12261,30 +12485,30 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12292,10 +12516,10 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>38</v>
@@ -12304,20 +12528,18 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12366,30 +12588,30 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>66</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12400,7 +12622,7 @@
         <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
@@ -12412,16 +12634,16 @@
         <v>38</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12471,13 +12693,13 @@
         <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12488,13 +12710,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12505,7 +12727,7 @@
         <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>38</v>
@@ -12514,19 +12736,19 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12552,10 +12774,10 @@
         <v>38</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>38</v>
@@ -12576,13 +12798,13 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12593,13 +12815,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12619,18 +12841,20 @@
         <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>38</v>
@@ -12655,13 +12879,13 @@
         <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>38</v>
@@ -12679,7 +12903,7 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -12696,13 +12920,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12725,15 +12949,17 @@
         <v>38</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>38</v>
@@ -12782,7 +13008,7 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -12791,25 +13017,25 @@
         <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12825,19 +13051,19 @@
         <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -12875,19 +13101,19 @@
         <v>38</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
@@ -12899,54 +13125,52 @@
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>56</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>38</v>
       </c>
@@ -12994,30 +13218,30 @@
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13037,19 +13261,19 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13099,7 +13323,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -13111,18 +13335,18 @@
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>66</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13142,19 +13366,19 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13180,13 +13404,13 @@
         <v>38</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>38</v>
@@ -13204,7 +13428,7 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
@@ -13216,6 +13440,1682 @@
         <v>42</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>66</v>
       </c>
     </row>
